--- a/resourse/model.xlsx
+++ b/resourse/model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wapProject\resourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1246\Documents\GitHub\wapProject\resourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CFF2BA3-94EA-428F-B888-8D4B41DA7227}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619665C1-9AF8-4C7C-8901-B3EFF9790280}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{987AC487-CCA4-4A4F-BA43-76067ADC565F}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{987AC487-CCA4-4A4F-BA43-76067ADC565F}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>User</t>
   </si>
@@ -79,12 +79,6 @@
     <t>addAds(Ads)</t>
   </si>
   <si>
-    <t>disablePost(Post)</t>
-  </si>
-  <si>
-    <t>disableUser(User)</t>
-  </si>
-  <si>
     <t>logout(User)</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>seeFollowersProfile(User)</t>
   </si>
   <si>
-    <t>follower</t>
-  </si>
-  <si>
     <t>seeFollowersTimeLine(User)</t>
   </si>
   <si>
@@ -155,6 +146,45 @@
   </si>
   <si>
     <t>addPost(User,Post)</t>
+  </si>
+  <si>
+    <t>followerList</t>
+  </si>
+  <si>
+    <t>postList</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>postedDate</t>
+  </si>
+  <si>
+    <t>imgUrl</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>banUser()</t>
+  </si>
+  <si>
+    <t>banPost()</t>
+  </si>
+  <si>
+    <t>revokeUser()</t>
+  </si>
+  <si>
+    <t>revokePost()</t>
+  </si>
+  <si>
+    <t>checkPost()</t>
+  </si>
+  <si>
+    <t>attitude(int)</t>
   </si>
 </sst>
 </file>
@@ -541,22 +571,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EB22AD-54C7-4B57-B89C-25AC8A20FE66}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="7" max="7" width="31.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -581,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -589,10 +619,10 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -600,136 +630,176 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C21" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +813,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resourse/model.xlsx
+++ b/resourse/model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1246\Documents\GitHub\wapProject\resourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619665C1-9AF8-4C7C-8901-B3EFF9790280}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052BB91A-26D2-403C-8CF3-005E103B0A78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{987AC487-CCA4-4A4F-BA43-76067ADC565F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>User</t>
   </si>
@@ -185,6 +185,15 @@
   </si>
   <si>
     <t>attitude(int)</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>ageRangeMin</t>
+  </si>
+  <si>
+    <t>ageRangeMax</t>
   </si>
 </sst>
 </file>
@@ -574,7 +583,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,6 +668,9 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
       <c r="E7" t="s">
         <v>44</v>
       </c>
@@ -667,20 +679,32 @@
       <c r="A8" t="s">
         <v>38</v>
       </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
